--- a/PROJECTS MACRO/WO Produksi Sewing - WS_TC_SMP_PR/RESULTS MACRO/Results_Report WO Produksi Sewing.xlsx
+++ b/PROJECTS MACRO/WO Produksi Sewing - WS_TC_SMP_PR/RESULTS MACRO/Results_Report WO Produksi Sewing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\Bersama\IT\RPA Produksi\WO Produksi Sewing - WS_TC_SMP_PR\RESULTS MACRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA66542-5594-4403-ADDF-531CA46EE907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6812E484-BD70-491C-B664-E17ED21A70A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="10320" xr2:uid="{1BF42347-5CD6-49EF-A0DA-DBB686705B4D}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10320" xr2:uid="{70295F0B-B543-42B4-8E00-BC7544970A34}"/>
   </bookViews>
   <sheets>
     <sheet name="CLN, MJ1, MJ2" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="CBA, CNJ2, CVA, CVA2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'CBA, CNJ2, CVA, CVA2'!$B$3:$BL$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CLN, MJ1, MJ2'!$B$3:$BL$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'KLB, CHW'!$B$3:$BL$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'CBA, CNJ2, CVA, CVA2'!$B$3:$BL$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CLN, MJ1, MJ2'!$B$3:$BL$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'KLB, CHW'!$B$3:$BL$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="996" uniqueCount="60">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="863" uniqueCount="61">
   <si>
     <t>WO Production Sewing - CLN, MJ1, MJ2</t>
   </si>
@@ -138,7 +138,13 @@
     <t>Prendi</t>
   </si>
   <si>
+    <t>Ati Astuti</t>
+  </si>
+  <si>
     <t>MJ1</t>
+  </si>
+  <si>
+    <t>Sausan, Imam, Endah</t>
   </si>
   <si>
     <t>Dede Rudianto</t>
@@ -147,10 +153,7 @@
     <t>Marso</t>
   </si>
   <si>
-    <t>Sausan, Imam, Endah</t>
-  </si>
-  <si>
-    <t>Ati Astuti</t>
+    <t>AITOZ,</t>
   </si>
   <si>
     <t>WO Production Sewing - KLB, CHW</t>
@@ -169,6 +172,9 @@
   </si>
   <si>
     <t>Akbar, Ibrahim</t>
+  </si>
+  <si>
+    <t>EIGER,</t>
   </si>
   <si>
     <t>Iwan, Dudung</t>
@@ -201,10 +207,10 @@
     <t>Bastian</t>
   </si>
   <si>
-    <t>CNJ2</t>
+    <t>NISHIMATSUYA,</t>
   </si>
   <si>
-    <t>Sularsi</t>
+    <t>CNJ2</t>
   </si>
   <si>
     <t>Mareta Ayu</t>
@@ -216,13 +222,10 @@
     <t>Deny</t>
   </si>
   <si>
-    <t>SKECHERS-S#</t>
+    <t>Sularsi</t>
   </si>
   <si>
-    <t>Winta</t>
-  </si>
-  <si>
-    <t>NISHIMATSUYA,</t>
+    <t>HNM</t>
   </si>
 </sst>
 </file>
@@ -839,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030777BE-D88E-4CFC-B466-99A706285D29}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E86627-E91E-4192-A7D7-37F017CF0FED}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:BL34"/>
+  <dimension ref="B3:BL35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1419,7 +1422,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J10" s="18">
         <v>1</v>
@@ -1428,7 +1431,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="19">
-        <v>181746</v>
+        <v>181748</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>26</v>
@@ -1438,7 +1441,7 @@
         <v>27</v>
       </c>
       <c r="P10" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10" s="18">
         <v>1</v>
@@ -1447,7 +1450,7 @@
         <v>25</v>
       </c>
       <c r="T10" s="19">
-        <v>181746</v>
+        <v>181748</v>
       </c>
       <c r="U10" s="19" t="s">
         <v>26</v>
@@ -1457,7 +1460,7 @@
         <v>27</v>
       </c>
       <c r="X10" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z10" s="18">
         <v>1</v>
@@ -1466,7 +1469,7 @@
         <v>25</v>
       </c>
       <c r="AB10" s="19">
-        <v>181746</v>
+        <v>181940</v>
       </c>
       <c r="AC10" s="19" t="s">
         <v>26</v>
@@ -1485,7 +1488,7 @@
         <v>25</v>
       </c>
       <c r="AJ10" s="19">
-        <v>181746</v>
+        <v>181940</v>
       </c>
       <c r="AK10" s="19" t="s">
         <v>26</v>
@@ -1504,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="AR10" s="19">
-        <v>181746</v>
+        <v>181940</v>
       </c>
       <c r="AS10" s="19" t="s">
         <v>26</v>
@@ -1523,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="AZ10" s="19">
-        <v>181746</v>
+        <v>181940</v>
       </c>
       <c r="BA10" s="19" t="s">
         <v>26</v>
@@ -1542,7 +1545,7 @@
         <v>25</v>
       </c>
       <c r="BH10" s="19">
-        <v>181746</v>
+        <v>181940</v>
       </c>
       <c r="BI10" s="19" t="s">
         <v>26</v>
@@ -1560,55 +1563,51 @@
         <v>2</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L11" s="19">
-        <v>181729</v>
+        <v>181771</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N11" s="19"/>
-      <c r="O11" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="O11" s="19"/>
       <c r="P11" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="18">
         <v>2</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T11" s="19">
-        <v>181729</v>
+        <v>181771</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V11" s="19"/>
-      <c r="W11" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="W11" s="19"/>
       <c r="X11" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="18">
         <v>2</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AB11" s="19">
-        <v>182004</v>
+        <v>181936</v>
       </c>
       <c r="AC11" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF11" s="20">
         <v>0</v>
@@ -1617,17 +1616,17 @@
         <v>2</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AJ11" s="19">
-        <v>182004</v>
+        <v>181936</v>
       </c>
       <c r="AK11" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AN11" s="20">
         <v>0</v>
@@ -1636,17 +1635,17 @@
         <v>2</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AR11" s="19">
-        <v>182004</v>
+        <v>181936</v>
       </c>
       <c r="AS11" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AT11" s="19"/>
       <c r="AU11" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AV11" s="20">
         <v>0</v>
@@ -1655,17 +1654,17 @@
         <v>2</v>
       </c>
       <c r="AY11" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AZ11" s="19">
-        <v>182004</v>
+        <v>181936</v>
       </c>
       <c r="BA11" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BB11" s="19"/>
       <c r="BC11" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BD11" s="20">
         <v>0</v>
@@ -1674,17 +1673,17 @@
         <v>2</v>
       </c>
       <c r="BG11" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BH11" s="19">
-        <v>182004</v>
+        <v>181936</v>
       </c>
       <c r="BI11" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BJ11" s="19"/>
       <c r="BK11" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BL11" s="20">
         <v>0</v>
@@ -1695,10 +1694,10 @@
         <v>3</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L12" s="19">
-        <v>181743</v>
+        <v>181725</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>26</v>
@@ -1708,16 +1707,16 @@
         <v>27</v>
       </c>
       <c r="P12" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R12" s="18">
         <v>3</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T12" s="19">
-        <v>181743</v>
+        <v>181725</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>26</v>
@@ -1727,7 +1726,7 @@
         <v>27</v>
       </c>
       <c r="X12" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="18">
         <v>3</v>
@@ -1736,7 +1735,7 @@
         <v>25</v>
       </c>
       <c r="AB12" s="19">
-        <v>181729</v>
+        <v>181722</v>
       </c>
       <c r="AC12" s="19" t="s">
         <v>26</v>
@@ -1755,7 +1754,7 @@
         <v>25</v>
       </c>
       <c r="AJ12" s="19">
-        <v>181729</v>
+        <v>181722</v>
       </c>
       <c r="AK12" s="19" t="s">
         <v>26</v>
@@ -1774,7 +1773,7 @@
         <v>25</v>
       </c>
       <c r="AR12" s="19">
-        <v>181729</v>
+        <v>181722</v>
       </c>
       <c r="AS12" s="19" t="s">
         <v>26</v>
@@ -1793,7 +1792,7 @@
         <v>25</v>
       </c>
       <c r="AZ12" s="19">
-        <v>181729</v>
+        <v>181722</v>
       </c>
       <c r="BA12" s="19" t="s">
         <v>26</v>
@@ -1812,7 +1811,7 @@
         <v>25</v>
       </c>
       <c r="BH12" s="19">
-        <v>181729</v>
+        <v>181722</v>
       </c>
       <c r="BI12" s="19" t="s">
         <v>26</v>
@@ -1833,7 +1832,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="19">
-        <v>181730</v>
+        <v>181724</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>26</v>
@@ -1843,7 +1842,7 @@
         <v>27</v>
       </c>
       <c r="P13" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R13" s="18">
         <v>4</v>
@@ -1852,7 +1851,7 @@
         <v>25</v>
       </c>
       <c r="T13" s="19">
-        <v>181730</v>
+        <v>181724</v>
       </c>
       <c r="U13" s="19" t="s">
         <v>26</v>
@@ -1862,7 +1861,7 @@
         <v>27</v>
       </c>
       <c r="X13" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z13" s="18">
         <v>4</v>
@@ -1871,7 +1870,7 @@
         <v>25</v>
       </c>
       <c r="AB13" s="19">
-        <v>181846</v>
+        <v>182002</v>
       </c>
       <c r="AC13" s="19" t="s">
         <v>26</v>
@@ -1890,7 +1889,7 @@
         <v>25</v>
       </c>
       <c r="AJ13" s="19">
-        <v>181846</v>
+        <v>182002</v>
       </c>
       <c r="AK13" s="19" t="s">
         <v>26</v>
@@ -1909,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="AR13" s="19">
-        <v>181846</v>
+        <v>182002</v>
       </c>
       <c r="AS13" s="19" t="s">
         <v>26</v>
@@ -1928,7 +1927,7 @@
         <v>25</v>
       </c>
       <c r="AZ13" s="19">
-        <v>181846</v>
+        <v>182002</v>
       </c>
       <c r="BA13" s="19" t="s">
         <v>26</v>
@@ -1947,7 +1946,7 @@
         <v>25</v>
       </c>
       <c r="BH13" s="19">
-        <v>181846</v>
+        <v>182002</v>
       </c>
       <c r="BI13" s="19" t="s">
         <v>26</v>
@@ -1960,40 +1959,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="18">
+    <row r="14" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="15">
         <v>5</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="19">
-        <v>181771</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20">
-        <v>7</v>
-      </c>
-      <c r="R14" s="18">
+      <c r="K14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="16">
+        <v>181720</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="17">
+        <v>6</v>
+      </c>
+      <c r="R14" s="15">
         <v>5</v>
       </c>
-      <c r="S14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="19">
-        <v>181771</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="20">
-        <v>7</v>
+      <c r="S14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="16">
+        <v>181720</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" s="17">
+        <v>6</v>
       </c>
       <c r="Z14" s="18">
         <v>5</v>
@@ -2002,7 +2005,7 @@
         <v>25</v>
       </c>
       <c r="AB14" s="19">
-        <v>181931</v>
+        <v>181733</v>
       </c>
       <c r="AC14" s="19" t="s">
         <v>26</v>
@@ -2021,7 +2024,7 @@
         <v>25</v>
       </c>
       <c r="AJ14" s="19">
-        <v>181931</v>
+        <v>181733</v>
       </c>
       <c r="AK14" s="19" t="s">
         <v>26</v>
@@ -2040,7 +2043,7 @@
         <v>25</v>
       </c>
       <c r="AR14" s="19">
-        <v>181931</v>
+        <v>181733</v>
       </c>
       <c r="AS14" s="19" t="s">
         <v>26</v>
@@ -2059,7 +2062,7 @@
         <v>25</v>
       </c>
       <c r="AZ14" s="19">
-        <v>181931</v>
+        <v>181733</v>
       </c>
       <c r="BA14" s="19" t="s">
         <v>26</v>
@@ -2078,7 +2081,7 @@
         <v>25</v>
       </c>
       <c r="BH14" s="19">
-        <v>181931</v>
+        <v>181733</v>
       </c>
       <c r="BI14" s="19" t="s">
         <v>26</v>
@@ -2091,45 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J15" s="15">
-        <v>6</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="16">
-        <v>181748</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="17">
-        <v>7</v>
-      </c>
-      <c r="R15" s="15">
-        <v>6</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" s="16">
-        <v>181748</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X15" s="17">
-        <v>7</v>
-      </c>
+    <row r="15" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z15" s="18">
         <v>6</v>
       </c>
@@ -2137,7 +2102,7 @@
         <v>25</v>
       </c>
       <c r="AB15" s="19">
-        <v>181844</v>
+        <v>181954</v>
       </c>
       <c r="AC15" s="19" t="s">
         <v>26</v>
@@ -2156,7 +2121,7 @@
         <v>25</v>
       </c>
       <c r="AJ15" s="19">
-        <v>181844</v>
+        <v>181954</v>
       </c>
       <c r="AK15" s="19" t="s">
         <v>26</v>
@@ -2175,7 +2140,7 @@
         <v>25</v>
       </c>
       <c r="AR15" s="19">
-        <v>181844</v>
+        <v>181954</v>
       </c>
       <c r="AS15" s="19" t="s">
         <v>26</v>
@@ -2194,7 +2159,7 @@
         <v>25</v>
       </c>
       <c r="AZ15" s="19">
-        <v>181844</v>
+        <v>181954</v>
       </c>
       <c r="BA15" s="19" t="s">
         <v>26</v>
@@ -2213,7 +2178,7 @@
         <v>25</v>
       </c>
       <c r="BH15" s="19">
-        <v>181844</v>
+        <v>181954</v>
       </c>
       <c r="BI15" s="19" t="s">
         <v>26</v>
@@ -2234,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="AB16" s="19">
-        <v>181940</v>
+        <v>181957</v>
       </c>
       <c r="AC16" s="19" t="s">
         <v>26</v>
@@ -2244,7 +2209,7 @@
         <v>28</v>
       </c>
       <c r="AF16" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH16" s="18">
         <v>7</v>
@@ -2253,7 +2218,7 @@
         <v>25</v>
       </c>
       <c r="AJ16" s="19">
-        <v>181940</v>
+        <v>181957</v>
       </c>
       <c r="AK16" s="19" t="s">
         <v>26</v>
@@ -2263,7 +2228,7 @@
         <v>29</v>
       </c>
       <c r="AN16" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP16" s="18">
         <v>7</v>
@@ -2272,7 +2237,7 @@
         <v>25</v>
       </c>
       <c r="AR16" s="19">
-        <v>181940</v>
+        <v>181957</v>
       </c>
       <c r="AS16" s="19" t="s">
         <v>26</v>
@@ -2282,7 +2247,7 @@
         <v>30</v>
       </c>
       <c r="AV16" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="18">
         <v>7</v>
@@ -2291,7 +2256,7 @@
         <v>25</v>
       </c>
       <c r="AZ16" s="19">
-        <v>181940</v>
+        <v>181957</v>
       </c>
       <c r="BA16" s="19" t="s">
         <v>26</v>
@@ -2301,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="BD16" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF16" s="18">
         <v>7</v>
@@ -2310,7 +2275,7 @@
         <v>25</v>
       </c>
       <c r="BH16" s="19">
-        <v>181940</v>
+        <v>181957</v>
       </c>
       <c r="BI16" s="19" t="s">
         <v>26</v>
@@ -2320,7 +2285,7 @@
         <v>28</v>
       </c>
       <c r="BL16" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,7 +2296,7 @@
         <v>25</v>
       </c>
       <c r="AB17" s="19">
-        <v>181601</v>
+        <v>181925</v>
       </c>
       <c r="AC17" s="19" t="s">
         <v>26</v>
@@ -2341,7 +2306,7 @@
         <v>28</v>
       </c>
       <c r="AF17" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH17" s="18">
         <v>8</v>
@@ -2350,7 +2315,7 @@
         <v>25</v>
       </c>
       <c r="AJ17" s="19">
-        <v>181601</v>
+        <v>181925</v>
       </c>
       <c r="AK17" s="19" t="s">
         <v>26</v>
@@ -2360,7 +2325,7 @@
         <v>29</v>
       </c>
       <c r="AN17" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP17" s="18">
         <v>8</v>
@@ -2369,7 +2334,7 @@
         <v>25</v>
       </c>
       <c r="AR17" s="19">
-        <v>181601</v>
+        <v>181925</v>
       </c>
       <c r="AS17" s="19" t="s">
         <v>26</v>
@@ -2379,7 +2344,7 @@
         <v>30</v>
       </c>
       <c r="AV17" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX17" s="18">
         <v>8</v>
@@ -2388,7 +2353,7 @@
         <v>25</v>
       </c>
       <c r="AZ17" s="19">
-        <v>181601</v>
+        <v>181925</v>
       </c>
       <c r="BA17" s="19" t="s">
         <v>26</v>
@@ -2398,7 +2363,7 @@
         <v>30</v>
       </c>
       <c r="BD17" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF17" s="18">
         <v>8</v>
@@ -2407,7 +2372,7 @@
         <v>25</v>
       </c>
       <c r="BH17" s="19">
-        <v>181601</v>
+        <v>181925</v>
       </c>
       <c r="BI17" s="19" t="s">
         <v>26</v>
@@ -2417,7 +2382,7 @@
         <v>28</v>
       </c>
       <c r="BL17" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,7 +2393,7 @@
         <v>25</v>
       </c>
       <c r="AB18" s="19">
-        <v>181738</v>
+        <v>181735</v>
       </c>
       <c r="AC18" s="19" t="s">
         <v>26</v>
@@ -2438,7 +2403,7 @@
         <v>28</v>
       </c>
       <c r="AF18" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="18">
         <v>9</v>
@@ -2447,7 +2412,7 @@
         <v>25</v>
       </c>
       <c r="AJ18" s="19">
-        <v>181738</v>
+        <v>181735</v>
       </c>
       <c r="AK18" s="19" t="s">
         <v>26</v>
@@ -2457,7 +2422,7 @@
         <v>29</v>
       </c>
       <c r="AN18" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP18" s="18">
         <v>9</v>
@@ -2466,7 +2431,7 @@
         <v>25</v>
       </c>
       <c r="AR18" s="19">
-        <v>181738</v>
+        <v>181735</v>
       </c>
       <c r="AS18" s="19" t="s">
         <v>26</v>
@@ -2476,7 +2441,7 @@
         <v>30</v>
       </c>
       <c r="AV18" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="18">
         <v>9</v>
@@ -2485,7 +2450,7 @@
         <v>25</v>
       </c>
       <c r="AZ18" s="19">
-        <v>181738</v>
+        <v>181735</v>
       </c>
       <c r="BA18" s="19" t="s">
         <v>26</v>
@@ -2495,7 +2460,7 @@
         <v>30</v>
       </c>
       <c r="BD18" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF18" s="18">
         <v>9</v>
@@ -2504,7 +2469,7 @@
         <v>25</v>
       </c>
       <c r="BH18" s="19">
-        <v>181738</v>
+        <v>181735</v>
       </c>
       <c r="BI18" s="19" t="s">
         <v>26</v>
@@ -2514,7 +2479,7 @@
         <v>28</v>
       </c>
       <c r="BL18" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,96 +2487,96 @@
         <v>10</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AB19" s="19">
-        <v>181743</v>
+        <v>181937</v>
       </c>
       <c r="AC19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF19" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="18">
         <v>10</v>
       </c>
       <c r="AI19" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AJ19" s="19">
-        <v>181743</v>
+        <v>181937</v>
       </c>
       <c r="AK19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AL19" s="19"/>
       <c r="AM19" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AN19" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP19" s="18">
         <v>10</v>
       </c>
       <c r="AQ19" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AR19" s="19">
-        <v>181988</v>
+        <v>181937</v>
       </c>
       <c r="AS19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AT19" s="19"/>
       <c r="AU19" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AV19" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="18">
         <v>10</v>
       </c>
       <c r="AY19" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AZ19" s="19">
-        <v>181988</v>
+        <v>181937</v>
       </c>
       <c r="BA19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BB19" s="19"/>
       <c r="BC19" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BD19" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF19" s="18">
         <v>10</v>
       </c>
       <c r="BG19" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BH19" s="19">
-        <v>181743</v>
+        <v>181937</v>
       </c>
       <c r="BI19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BJ19" s="19"/>
       <c r="BK19" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BL19" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2619,39 +2584,39 @@
         <v>11</v>
       </c>
       <c r="AA20" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AB20" s="19">
-        <v>181988</v>
+        <v>181748</v>
       </c>
       <c r="AC20" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF20" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH20" s="18">
         <v>11</v>
       </c>
       <c r="AI20" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AJ20" s="19">
-        <v>181988</v>
+        <v>181748</v>
       </c>
       <c r="AK20" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AL20" s="19"/>
       <c r="AM20" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AN20" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP20" s="18">
         <v>11</v>
@@ -2660,7 +2625,7 @@
         <v>25</v>
       </c>
       <c r="AR20" s="19">
-        <v>181730</v>
+        <v>181748</v>
       </c>
       <c r="AS20" s="19" t="s">
         <v>26</v>
@@ -2670,7 +2635,7 @@
         <v>30</v>
       </c>
       <c r="AV20" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="18">
         <v>11</v>
@@ -2679,7 +2644,7 @@
         <v>25</v>
       </c>
       <c r="AZ20" s="19">
-        <v>181730</v>
+        <v>181748</v>
       </c>
       <c r="BA20" s="19" t="s">
         <v>26</v>
@@ -2689,26 +2654,26 @@
         <v>30</v>
       </c>
       <c r="BD20" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF20" s="18">
         <v>11</v>
       </c>
       <c r="BG20" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BH20" s="19">
-        <v>181988</v>
+        <v>181748</v>
       </c>
       <c r="BI20" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BJ20" s="19"/>
       <c r="BK20" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BL20" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2716,96 +2681,94 @@
         <v>12</v>
       </c>
       <c r="AA21" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB21" s="19">
-        <v>181730</v>
+        <v>181771</v>
       </c>
       <c r="AC21" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AF21" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH21" s="18">
         <v>12</v>
       </c>
       <c r="AI21" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ21" s="19">
-        <v>181730</v>
+        <v>181771</v>
       </c>
       <c r="AK21" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL21" s="19"/>
-      <c r="AM21" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="AM21" s="19"/>
       <c r="AN21" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP21" s="18">
         <v>12</v>
       </c>
       <c r="AQ21" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AR21" s="19">
-        <v>181938</v>
+        <v>181981</v>
       </c>
       <c r="AS21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AT21" s="19"/>
       <c r="AU21" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AV21" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="18">
         <v>12</v>
       </c>
       <c r="AY21" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AZ21" s="19">
-        <v>181938</v>
+        <v>181981</v>
       </c>
       <c r="BA21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BB21" s="19"/>
       <c r="BC21" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BD21" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF21" s="18">
         <v>12</v>
       </c>
       <c r="BG21" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BH21" s="19">
-        <v>181730</v>
+        <v>181771</v>
       </c>
       <c r="BI21" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BJ21" s="19"/>
       <c r="BK21" s="19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BL21" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2813,96 +2776,96 @@
         <v>13</v>
       </c>
       <c r="AA22" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AB22" s="19">
-        <v>181938</v>
+        <v>181981</v>
       </c>
       <c r="AC22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AF22" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH22" s="18">
         <v>13</v>
       </c>
       <c r="AI22" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AJ22" s="19">
-        <v>181938</v>
+        <v>181981</v>
       </c>
       <c r="AK22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AL22" s="19"/>
       <c r="AM22" s="19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AN22" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP22" s="18">
         <v>13</v>
       </c>
       <c r="AQ22" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AR22" s="19">
-        <v>181987</v>
+        <v>181725</v>
       </c>
       <c r="AS22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AT22" s="19"/>
       <c r="AU22" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AV22" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX22" s="18">
         <v>13</v>
       </c>
       <c r="AY22" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AZ22" s="19">
-        <v>181987</v>
+        <v>181725</v>
       </c>
       <c r="BA22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BB22" s="19"/>
       <c r="BC22" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BD22" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF22" s="18">
         <v>13</v>
       </c>
       <c r="BG22" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="BH22" s="19">
-        <v>181938</v>
+        <v>181981</v>
       </c>
       <c r="BI22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BJ22" s="19"/>
       <c r="BK22" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BL22" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2910,39 +2873,39 @@
         <v>14</v>
       </c>
       <c r="AA23" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AB23" s="19">
-        <v>181987</v>
+        <v>181725</v>
       </c>
       <c r="AC23" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF23" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH23" s="18">
         <v>14</v>
       </c>
       <c r="AI23" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AJ23" s="19">
-        <v>181987</v>
+        <v>181725</v>
       </c>
       <c r="AK23" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AL23" s="19"/>
       <c r="AM23" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AN23" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP23" s="18">
         <v>14</v>
@@ -2951,7 +2914,7 @@
         <v>25</v>
       </c>
       <c r="AR23" s="19">
-        <v>181939</v>
+        <v>181952</v>
       </c>
       <c r="AS23" s="19" t="s">
         <v>26</v>
@@ -2961,7 +2924,7 @@
         <v>30</v>
       </c>
       <c r="AV23" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX23" s="18">
         <v>14</v>
@@ -2970,7 +2933,7 @@
         <v>25</v>
       </c>
       <c r="AZ23" s="19">
-        <v>181939</v>
+        <v>181952</v>
       </c>
       <c r="BA23" s="19" t="s">
         <v>26</v>
@@ -2980,26 +2943,26 @@
         <v>30</v>
       </c>
       <c r="BD23" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF23" s="18">
         <v>14</v>
       </c>
       <c r="BG23" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BH23" s="19">
-        <v>181987</v>
+        <v>181725</v>
       </c>
       <c r="BI23" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BJ23" s="19"/>
       <c r="BK23" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BL23" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3010,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="AB24" s="19">
-        <v>181939</v>
+        <v>181952</v>
       </c>
       <c r="AC24" s="19" t="s">
         <v>26</v>
@@ -3020,7 +2983,7 @@
         <v>28</v>
       </c>
       <c r="AF24" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH24" s="18">
         <v>15</v>
@@ -3029,7 +2992,7 @@
         <v>25</v>
       </c>
       <c r="AJ24" s="19">
-        <v>181939</v>
+        <v>181952</v>
       </c>
       <c r="AK24" s="19" t="s">
         <v>26</v>
@@ -3039,7 +3002,7 @@
         <v>29</v>
       </c>
       <c r="AN24" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP24" s="18">
         <v>15</v>
@@ -3048,7 +3011,7 @@
         <v>25</v>
       </c>
       <c r="AR24" s="19">
-        <v>181948</v>
+        <v>181724</v>
       </c>
       <c r="AS24" s="19" t="s">
         <v>26</v>
@@ -3058,7 +3021,7 @@
         <v>30</v>
       </c>
       <c r="AV24" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX24" s="18">
         <v>15</v>
@@ -3067,7 +3030,7 @@
         <v>25</v>
       </c>
       <c r="AZ24" s="19">
-        <v>181948</v>
+        <v>181724</v>
       </c>
       <c r="BA24" s="19" t="s">
         <v>26</v>
@@ -3077,7 +3040,7 @@
         <v>30</v>
       </c>
       <c r="BD24" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF24" s="18">
         <v>15</v>
@@ -3086,7 +3049,7 @@
         <v>25</v>
       </c>
       <c r="BH24" s="19">
-        <v>181939</v>
+        <v>181952</v>
       </c>
       <c r="BI24" s="19" t="s">
         <v>26</v>
@@ -3096,7 +3059,7 @@
         <v>28</v>
       </c>
       <c r="BL24" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3107,7 +3070,7 @@
         <v>25</v>
       </c>
       <c r="AB25" s="19">
-        <v>181948</v>
+        <v>181724</v>
       </c>
       <c r="AC25" s="19" t="s">
         <v>26</v>
@@ -3117,7 +3080,7 @@
         <v>28</v>
       </c>
       <c r="AF25" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH25" s="18">
         <v>16</v>
@@ -3126,7 +3089,7 @@
         <v>25</v>
       </c>
       <c r="AJ25" s="19">
-        <v>181948</v>
+        <v>181724</v>
       </c>
       <c r="AK25" s="19" t="s">
         <v>26</v>
@@ -3136,7 +3099,7 @@
         <v>29</v>
       </c>
       <c r="AN25" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP25" s="18">
         <v>16</v>
@@ -3145,7 +3108,7 @@
         <v>25</v>
       </c>
       <c r="AR25" s="19">
-        <v>181936</v>
+        <v>181958</v>
       </c>
       <c r="AS25" s="19" t="s">
         <v>26</v>
@@ -3155,7 +3118,7 @@
         <v>30</v>
       </c>
       <c r="AV25" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX25" s="18">
         <v>16</v>
@@ -3164,7 +3127,7 @@
         <v>25</v>
       </c>
       <c r="AZ25" s="19">
-        <v>181936</v>
+        <v>181958</v>
       </c>
       <c r="BA25" s="19" t="s">
         <v>26</v>
@@ -3174,7 +3137,7 @@
         <v>30</v>
       </c>
       <c r="BD25" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF25" s="18">
         <v>16</v>
@@ -3183,7 +3146,7 @@
         <v>25</v>
       </c>
       <c r="BH25" s="19">
-        <v>181948</v>
+        <v>181724</v>
       </c>
       <c r="BI25" s="19" t="s">
         <v>26</v>
@@ -3193,7 +3156,7 @@
         <v>28</v>
       </c>
       <c r="BL25" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3204,7 +3167,7 @@
         <v>25</v>
       </c>
       <c r="AB26" s="19">
-        <v>181936</v>
+        <v>181958</v>
       </c>
       <c r="AC26" s="19" t="s">
         <v>26</v>
@@ -3214,7 +3177,7 @@
         <v>28</v>
       </c>
       <c r="AF26" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH26" s="18">
         <v>17</v>
@@ -3223,7 +3186,7 @@
         <v>25</v>
       </c>
       <c r="AJ26" s="19">
-        <v>181936</v>
+        <v>181958</v>
       </c>
       <c r="AK26" s="19" t="s">
         <v>26</v>
@@ -3233,7 +3196,7 @@
         <v>29</v>
       </c>
       <c r="AN26" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP26" s="18">
         <v>17</v>
@@ -3242,7 +3205,7 @@
         <v>25</v>
       </c>
       <c r="AR26" s="19">
-        <v>181954</v>
+        <v>181953</v>
       </c>
       <c r="AS26" s="19" t="s">
         <v>26</v>
@@ -3252,7 +3215,7 @@
         <v>30</v>
       </c>
       <c r="AV26" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX26" s="18">
         <v>17</v>
@@ -3261,7 +3224,7 @@
         <v>25</v>
       </c>
       <c r="AZ26" s="19">
-        <v>181954</v>
+        <v>181953</v>
       </c>
       <c r="BA26" s="19" t="s">
         <v>26</v>
@@ -3271,7 +3234,7 @@
         <v>30</v>
       </c>
       <c r="BD26" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF26" s="18">
         <v>17</v>
@@ -3280,7 +3243,7 @@
         <v>25</v>
       </c>
       <c r="BH26" s="19">
-        <v>181936</v>
+        <v>181958</v>
       </c>
       <c r="BI26" s="19" t="s">
         <v>26</v>
@@ -3290,7 +3253,7 @@
         <v>28</v>
       </c>
       <c r="BL26" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,7 +3264,7 @@
         <v>25</v>
       </c>
       <c r="AB27" s="19">
-        <v>181954</v>
+        <v>181953</v>
       </c>
       <c r="AC27" s="19" t="s">
         <v>26</v>
@@ -3311,7 +3274,7 @@
         <v>28</v>
       </c>
       <c r="AF27" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH27" s="18">
         <v>18</v>
@@ -3320,7 +3283,7 @@
         <v>25</v>
       </c>
       <c r="AJ27" s="19">
-        <v>181954</v>
+        <v>181953</v>
       </c>
       <c r="AK27" s="19" t="s">
         <v>26</v>
@@ -3330,7 +3293,7 @@
         <v>29</v>
       </c>
       <c r="AN27" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP27" s="18">
         <v>18</v>
@@ -3339,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="AR27" s="19">
-        <v>181925</v>
+        <v>181927</v>
       </c>
       <c r="AS27" s="19" t="s">
         <v>26</v>
@@ -3358,7 +3321,7 @@
         <v>25</v>
       </c>
       <c r="AZ27" s="19">
-        <v>181925</v>
+        <v>181927</v>
       </c>
       <c r="BA27" s="19" t="s">
         <v>26</v>
@@ -3377,7 +3340,7 @@
         <v>25</v>
       </c>
       <c r="BH27" s="19">
-        <v>181954</v>
+        <v>181953</v>
       </c>
       <c r="BI27" s="19" t="s">
         <v>26</v>
@@ -3387,7 +3350,7 @@
         <v>28</v>
       </c>
       <c r="BL27" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3398,7 +3361,7 @@
         <v>25</v>
       </c>
       <c r="AB28" s="19">
-        <v>181925</v>
+        <v>181927</v>
       </c>
       <c r="AC28" s="19" t="s">
         <v>26</v>
@@ -3417,7 +3380,7 @@
         <v>25</v>
       </c>
       <c r="AJ28" s="19">
-        <v>181925</v>
+        <v>181927</v>
       </c>
       <c r="AK28" s="19" t="s">
         <v>26</v>
@@ -3436,7 +3399,7 @@
         <v>25</v>
       </c>
       <c r="AR28" s="19">
-        <v>181957</v>
+        <v>181720</v>
       </c>
       <c r="AS28" s="19" t="s">
         <v>26</v>
@@ -3455,7 +3418,7 @@
         <v>25</v>
       </c>
       <c r="AZ28" s="19">
-        <v>181957</v>
+        <v>181720</v>
       </c>
       <c r="BA28" s="19" t="s">
         <v>26</v>
@@ -3474,7 +3437,7 @@
         <v>25</v>
       </c>
       <c r="BH28" s="19">
-        <v>181925</v>
+        <v>181927</v>
       </c>
       <c r="BI28" s="19" t="s">
         <v>26</v>
@@ -3495,7 +3458,7 @@
         <v>25</v>
       </c>
       <c r="AB29" s="19">
-        <v>181957</v>
+        <v>181720</v>
       </c>
       <c r="AC29" s="19" t="s">
         <v>26</v>
@@ -3514,7 +3477,7 @@
         <v>25</v>
       </c>
       <c r="AJ29" s="19">
-        <v>181957</v>
+        <v>181720</v>
       </c>
       <c r="AK29" s="19" t="s">
         <v>26</v>
@@ -3533,7 +3496,7 @@
         <v>25</v>
       </c>
       <c r="AR29" s="19">
-        <v>181937</v>
+        <v>181949</v>
       </c>
       <c r="AS29" s="19" t="s">
         <v>26</v>
@@ -3543,7 +3506,7 @@
         <v>30</v>
       </c>
       <c r="AV29" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX29" s="18">
         <v>20</v>
@@ -3552,7 +3515,7 @@
         <v>25</v>
       </c>
       <c r="AZ29" s="19">
-        <v>181937</v>
+        <v>181949</v>
       </c>
       <c r="BA29" s="19" t="s">
         <v>26</v>
@@ -3562,7 +3525,7 @@
         <v>30</v>
       </c>
       <c r="BD29" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF29" s="18">
         <v>20</v>
@@ -3571,7 +3534,7 @@
         <v>25</v>
       </c>
       <c r="BH29" s="19">
-        <v>181957</v>
+        <v>181720</v>
       </c>
       <c r="BI29" s="19" t="s">
         <v>26</v>
@@ -3589,94 +3552,96 @@
         <v>21</v>
       </c>
       <c r="AA30" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB30" s="19">
-        <v>181771</v>
+        <v>181949</v>
       </c>
       <c r="AC30" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AF30" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH30" s="18">
         <v>21</v>
       </c>
       <c r="AI30" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ30" s="19">
-        <v>181771</v>
+        <v>181949</v>
       </c>
       <c r="AK30" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL30" s="19"/>
-      <c r="AM30" s="19"/>
+      <c r="AM30" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="AN30" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP30" s="18">
         <v>21</v>
       </c>
       <c r="AQ30" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AR30" s="19">
-        <v>181748</v>
+        <v>181980</v>
       </c>
       <c r="AS30" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AT30" s="19"/>
       <c r="AU30" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AV30" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX30" s="18">
         <v>21</v>
       </c>
       <c r="AY30" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AZ30" s="19">
-        <v>181748</v>
+        <v>181980</v>
       </c>
       <c r="BA30" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BB30" s="19"/>
       <c r="BC30" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BD30" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF30" s="18">
         <v>21</v>
       </c>
       <c r="BG30" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BH30" s="19">
-        <v>181771</v>
+        <v>181949</v>
       </c>
       <c r="BI30" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BJ30" s="19"/>
       <c r="BK30" s="19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="BL30" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3684,39 +3649,39 @@
         <v>22</v>
       </c>
       <c r="AA31" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AB31" s="19">
-        <v>181937</v>
+        <v>181980</v>
       </c>
       <c r="AC31" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AF31" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH31" s="18">
         <v>22</v>
       </c>
       <c r="AI31" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AJ31" s="19">
-        <v>181937</v>
+        <v>181980</v>
       </c>
       <c r="AK31" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AL31" s="19"/>
       <c r="AM31" s="19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AN31" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP31" s="18">
         <v>22</v>
@@ -3725,7 +3690,7 @@
         <v>25</v>
       </c>
       <c r="AR31" s="19">
-        <v>181929</v>
+        <v>181950</v>
       </c>
       <c r="AS31" s="19" t="s">
         <v>26</v>
@@ -3744,7 +3709,7 @@
         <v>25</v>
       </c>
       <c r="AZ31" s="19">
-        <v>181929</v>
+        <v>181950</v>
       </c>
       <c r="BA31" s="19" t="s">
         <v>26</v>
@@ -3760,23 +3725,23 @@
         <v>22</v>
       </c>
       <c r="BG31" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="BH31" s="19">
-        <v>181937</v>
+        <v>181980</v>
       </c>
       <c r="BI31" s="19" t="s">
         <v>26</v>
       </c>
       <c r="BJ31" s="19"/>
       <c r="BK31" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BL31" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="32" spans="26:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z32" s="18">
         <v>23</v>
       </c>
@@ -3784,7 +3749,7 @@
         <v>25</v>
       </c>
       <c r="AB32" s="19">
-        <v>181748</v>
+        <v>181950</v>
       </c>
       <c r="AC32" s="19" t="s">
         <v>26</v>
@@ -3803,7 +3768,7 @@
         <v>25</v>
       </c>
       <c r="AJ32" s="19">
-        <v>181748</v>
+        <v>181950</v>
       </c>
       <c r="AK32" s="19" t="s">
         <v>26</v>
@@ -3815,42 +3780,42 @@
       <c r="AN32" s="20">
         <v>7</v>
       </c>
-      <c r="AP32" s="15">
+      <c r="AP32" s="18">
         <v>23</v>
       </c>
-      <c r="AQ32" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR32" s="16">
-        <v>181949</v>
-      </c>
-      <c r="AS32" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT32" s="16"/>
-      <c r="AU32" s="16" t="s">
+      <c r="AQ32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR32" s="19">
+        <v>181934</v>
+      </c>
+      <c r="AS32" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AV32" s="17">
+      <c r="AV32" s="20">
         <v>7</v>
       </c>
-      <c r="AX32" s="15">
+      <c r="AX32" s="18">
         <v>23</v>
       </c>
-      <c r="AY32" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ32" s="16">
-        <v>181949</v>
-      </c>
-      <c r="BA32" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB32" s="16"/>
-      <c r="BC32" s="16" t="s">
+      <c r="AY32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ32" s="19">
+        <v>181934</v>
+      </c>
+      <c r="BA32" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="BD32" s="17">
+      <c r="BD32" s="20">
         <v>7</v>
       </c>
       <c r="BF32" s="18">
@@ -3860,7 +3825,7 @@
         <v>25</v>
       </c>
       <c r="BH32" s="19">
-        <v>181748</v>
+        <v>181950</v>
       </c>
       <c r="BI32" s="19" t="s">
         <v>26</v>
@@ -3873,7 +3838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="26:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Z33" s="18">
         <v>24</v>
       </c>
@@ -3881,7 +3846,7 @@
         <v>25</v>
       </c>
       <c r="AB33" s="19">
-        <v>181929</v>
+        <v>181934</v>
       </c>
       <c r="AC33" s="19" t="s">
         <v>26</v>
@@ -3897,21 +3862,57 @@
         <v>24</v>
       </c>
       <c r="AI33" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ33" s="19">
-        <v>181929</v>
+        <v>182069</v>
       </c>
       <c r="AK33" s="19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AL33" s="19"/>
-      <c r="AM33" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="AM33" s="19"/>
       <c r="AN33" s="20">
         <v>7</v>
       </c>
+      <c r="AP33" s="15">
+        <v>24</v>
+      </c>
+      <c r="AQ33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR33" s="16">
+        <v>181929</v>
+      </c>
+      <c r="AS33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV33" s="17">
+        <v>7</v>
+      </c>
+      <c r="AX33" s="15">
+        <v>24</v>
+      </c>
+      <c r="AY33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ33" s="16">
+        <v>181929</v>
+      </c>
+      <c r="BA33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB33" s="16"/>
+      <c r="BC33" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD33" s="17">
+        <v>7</v>
+      </c>
       <c r="BF33" s="18">
         <v>24</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>25</v>
       </c>
       <c r="BH33" s="19">
-        <v>181929</v>
+        <v>181934</v>
       </c>
       <c r="BI33" s="19" t="s">
         <v>26</v>
@@ -3940,7 +3941,7 @@
         <v>25</v>
       </c>
       <c r="AB34" s="16">
-        <v>181949</v>
+        <v>181929</v>
       </c>
       <c r="AC34" s="16" t="s">
         <v>26</v>
@@ -3952,23 +3953,23 @@
       <c r="AF34" s="17">
         <v>7</v>
       </c>
-      <c r="AH34" s="15">
-        <v>25</v>
-      </c>
-      <c r="AI34" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ34" s="16">
-        <v>181949</v>
-      </c>
-      <c r="AK34" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="16" t="s">
+      <c r="AH34" s="18">
+        <v>25</v>
+      </c>
+      <c r="AI34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ34" s="19">
+        <v>181934</v>
+      </c>
+      <c r="AK34" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AN34" s="17">
+      <c r="AN34" s="20">
         <v>7</v>
       </c>
       <c r="BF34" s="15">
@@ -3978,7 +3979,7 @@
         <v>25</v>
       </c>
       <c r="BH34" s="16">
-        <v>181949</v>
+        <v>181929</v>
       </c>
       <c r="BI34" s="16" t="s">
         <v>26</v>
@@ -3988,6 +3989,27 @@
         <v>28</v>
       </c>
       <c r="BL34" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="26:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH35" s="15">
+        <v>26</v>
+      </c>
+      <c r="AI35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ35" s="16">
+        <v>181929</v>
+      </c>
+      <c r="AK35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN35" s="17">
         <v>7</v>
       </c>
     </row>
@@ -4010,11 +4032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEAE715-31EC-46AD-93F6-530A91DDAEED}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC001473-F5DD-42EC-A15E-85F21DBA696B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:BL14"/>
+  <dimension ref="B3:BL15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -4087,7 +4109,7 @@
   <sheetData>
     <row r="3" spans="2:64" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4582,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="16">
         <v>24001002</v>
@@ -4590,16 +4612,16 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" s="15">
         <v>1</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10" s="16">
         <v>24001002</v>
@@ -4607,33 +4629,33 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <v>1</v>
+      </c>
+      <c r="S10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="17">
-        <v>4</v>
-      </c>
-      <c r="R10" s="15">
-        <v>1</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="16">
+      <c r="T10" s="19">
         <v>24001002</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="X10" s="17">
-        <v>4</v>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="20">
+        <v>0</v>
       </c>
       <c r="Z10" s="18">
         <v>1</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB10" s="19">
         <v>181924</v>
@@ -4643,16 +4665,16 @@
       </c>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF10" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="18">
         <v>1</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ10" s="19">
         <v>181924</v>
@@ -4662,16 +4684,16 @@
       </c>
       <c r="AL10" s="19"/>
       <c r="AM10" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN10" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="18">
         <v>1</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AR10" s="19">
         <v>181924</v>
@@ -4681,16 +4703,16 @@
       </c>
       <c r="AT10" s="19"/>
       <c r="AU10" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AV10" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="18">
         <v>1</v>
       </c>
       <c r="AY10" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AZ10" s="19">
         <v>181924</v>
@@ -4700,16 +4722,16 @@
       </c>
       <c r="BB10" s="19"/>
       <c r="BC10" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD10" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="18">
         <v>1</v>
       </c>
       <c r="BG10" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BH10" s="19">
         <v>181924</v>
@@ -4719,18 +4741,37 @@
       </c>
       <c r="BJ10" s="19"/>
       <c r="BK10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="15">
+        <v>2</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="16">
+        <v>181907</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="BL10" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="17">
+        <v>7</v>
+      </c>
       <c r="Z11" s="18">
         <v>2</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB11" s="19">
         <v>181717</v>
@@ -4740,16 +4781,16 @@
       </c>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF11" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="18">
         <v>2</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ11" s="19">
         <v>181717</v>
@@ -4759,16 +4800,16 @@
       </c>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN11" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="18">
         <v>2</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AR11" s="19">
         <v>24001002</v>
@@ -4776,16 +4817,16 @@
       <c r="AS11" s="19"/>
       <c r="AT11" s="19"/>
       <c r="AU11" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AV11" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="18">
         <v>2</v>
       </c>
       <c r="AY11" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AZ11" s="19">
         <v>181717</v>
@@ -4795,16 +4836,16 @@
       </c>
       <c r="BB11" s="19"/>
       <c r="BC11" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD11" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="18">
         <v>2</v>
       </c>
       <c r="BG11" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BH11" s="19">
         <v>181717</v>
@@ -4814,10 +4855,10 @@
       </c>
       <c r="BJ11" s="19"/>
       <c r="BK11" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BL11" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4825,7 +4866,7 @@
         <v>3</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB12" s="19">
         <v>24001002</v>
@@ -4833,16 +4874,16 @@
       <c r="AC12" s="19"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF12" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="18">
         <v>3</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ12" s="19">
         <v>24001002</v>
@@ -4850,16 +4891,16 @@
       <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN12" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="18">
         <v>3</v>
       </c>
       <c r="AQ12" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AR12" s="19">
         <v>181921</v>
@@ -4869,16 +4910,16 @@
       </c>
       <c r="AT12" s="19"/>
       <c r="AU12" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AV12" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="18">
         <v>3</v>
       </c>
       <c r="AY12" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AZ12" s="19">
         <v>24001002</v>
@@ -4886,16 +4927,16 @@
       <c r="BA12" s="19"/>
       <c r="BB12" s="19"/>
       <c r="BC12" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BD12" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="18">
         <v>3</v>
       </c>
       <c r="BG12" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BH12" s="19">
         <v>24001002</v>
@@ -4903,18 +4944,18 @@
       <c r="BI12" s="19"/>
       <c r="BJ12" s="19"/>
       <c r="BK12" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BL12" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z13" s="18">
         <v>4</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB13" s="19">
         <v>181921</v>
@@ -4924,16 +4965,16 @@
       </c>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF13" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="18">
         <v>4</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ13" s="19">
         <v>181921</v>
@@ -4943,35 +4984,35 @@
       </c>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN13" s="20">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="18">
+        <v>4</v>
+      </c>
+      <c r="AQ13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR13" s="19">
+        <v>181943</v>
+      </c>
+      <c r="AS13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AN13" s="20">
-        <v>6</v>
-      </c>
-      <c r="AP13" s="15">
-        <v>4</v>
-      </c>
-      <c r="AQ13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR13" s="16">
-        <v>181943</v>
-      </c>
-      <c r="AS13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV13" s="17">
-        <v>7</v>
+      <c r="AV13" s="20">
+        <v>3</v>
       </c>
       <c r="AX13" s="18">
         <v>4</v>
       </c>
       <c r="AY13" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AZ13" s="19">
         <v>181921</v>
@@ -4981,16 +5022,16 @@
       </c>
       <c r="BB13" s="19"/>
       <c r="BC13" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD13" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BF13" s="18">
         <v>4</v>
       </c>
       <c r="BG13" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BH13" s="19">
         <v>181921</v>
@@ -5000,87 +5041,184 @@
       </c>
       <c r="BJ13" s="19"/>
       <c r="BK13" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BL13" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z14" s="15">
+      <c r="Z14" s="18">
         <v>5</v>
       </c>
-      <c r="AA14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB14" s="16">
+      <c r="AA14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB14" s="19">
         <v>181943</v>
       </c>
-      <c r="AC14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF14" s="17">
+      <c r="AC14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF14" s="20">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ14" s="19">
+        <v>181943</v>
+      </c>
+      <c r="AK14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN14" s="20">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="15">
+        <v>5</v>
+      </c>
+      <c r="AQ14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR14" s="16">
+        <v>181907</v>
+      </c>
+      <c r="AS14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV14" s="17">
         <v>7</v>
       </c>
-      <c r="AH14" s="15">
+      <c r="AX14" s="18">
         <v>5</v>
       </c>
-      <c r="AI14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ14" s="16">
+      <c r="AY14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ14" s="19">
         <v>181943</v>
       </c>
-      <c r="AK14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16" t="s">
+      <c r="BA14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD14" s="20">
+        <v>3</v>
+      </c>
+      <c r="BF14" s="18">
+        <v>5</v>
+      </c>
+      <c r="BG14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH14" s="19">
+        <v>181943</v>
+      </c>
+      <c r="BI14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ14" s="19"/>
+      <c r="BK14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AN14" s="17">
+      <c r="BL14" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z15" s="15">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>181907</v>
+      </c>
+      <c r="AC15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF15" s="17">
         <v>7</v>
       </c>
-      <c r="AX14" s="15">
-        <v>5</v>
-      </c>
-      <c r="AY14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ14" s="16">
-        <v>181943</v>
-      </c>
-      <c r="BA14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD14" s="17">
+      <c r="AH15" s="15">
+        <v>6</v>
+      </c>
+      <c r="AI15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ15" s="16">
+        <v>181907</v>
+      </c>
+      <c r="AK15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN15" s="17">
         <v>7</v>
       </c>
-      <c r="BF14" s="15">
-        <v>5</v>
-      </c>
-      <c r="BG14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="BH14" s="16">
-        <v>181943</v>
-      </c>
-      <c r="BI14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ14" s="16"/>
-      <c r="BK14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL14" s="17">
+      <c r="AX15" s="15">
+        <v>6</v>
+      </c>
+      <c r="AY15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ15" s="16">
+        <v>181907</v>
+      </c>
+      <c r="BA15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD15" s="17">
+        <v>7</v>
+      </c>
+      <c r="BF15" s="15">
+        <v>6</v>
+      </c>
+      <c r="BG15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH15" s="16">
+        <v>181907</v>
+      </c>
+      <c r="BI15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ15" s="16"/>
+      <c r="BK15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL15" s="17">
         <v>7</v>
       </c>
     </row>
@@ -5103,11 +5241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DBD9EB-A017-43CD-92CD-7424969B951F}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA72C97-6314-4DD8-9A45-01617BCE8907}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:BL25"/>
+  <dimension ref="B3:BL19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -5116,21 +5254,21 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="24.7109375" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
     <col min="19" max="19" width="22.7109375" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
     <col min="22" max="22" width="23.7109375" customWidth="1"/>
     <col min="23" max="24" width="14.7109375" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" customWidth="1"/>
@@ -5139,7 +5277,7 @@
     <col min="28" max="28" width="11.7109375" customWidth="1"/>
     <col min="29" max="29" width="20.7109375" customWidth="1"/>
     <col min="30" max="30" width="14.7109375" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" customWidth="1"/>
     <col min="32" max="32" width="14.7109375" customWidth="1"/>
     <col min="33" max="33" width="10.7109375" customWidth="1"/>
     <col min="34" max="34" width="7.7109375" customWidth="1"/>
@@ -5176,7 +5314,7 @@
   <sheetData>
     <row r="3" spans="2:64" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5671,17 +5809,17 @@
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="19">
-        <v>181673</v>
+        <v>181668</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" s="20">
         <v>0</v>
@@ -5690,17 +5828,17 @@
         <v>1</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="19">
-        <v>181673</v>
+        <v>181668</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="20">
         <v>0</v>
@@ -5709,17 +5847,17 @@
         <v>1</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T10" s="19">
-        <v>181673</v>
+        <v>181668</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V10" s="19"/>
       <c r="W10" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X10" s="20">
         <v>0</v>
@@ -5728,17 +5866,17 @@
         <v>1</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB10" s="19">
-        <v>181673</v>
+        <v>181668</v>
       </c>
       <c r="AC10" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF10" s="20">
         <v>0</v>
@@ -5747,17 +5885,17 @@
         <v>1</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ10" s="19">
-        <v>181673</v>
+        <v>181668</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AL10" s="19"/>
       <c r="AM10" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN10" s="20">
         <v>0</v>
@@ -5766,17 +5904,17 @@
         <v>1</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR10" s="19">
-        <v>181673</v>
+        <v>181668</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AT10" s="19"/>
       <c r="AU10" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AV10" s="20">
         <v>0</v>
@@ -5785,17 +5923,17 @@
         <v>1</v>
       </c>
       <c r="AY10" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AZ10" s="19">
-        <v>181673</v>
+        <v>181668</v>
       </c>
       <c r="BA10" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="BB10" s="19"/>
       <c r="BC10" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BD10" s="20">
         <v>0</v>
@@ -5804,17 +5942,17 @@
         <v>1</v>
       </c>
       <c r="BG10" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BH10" s="19">
-        <v>181673</v>
+        <v>181668</v>
       </c>
       <c r="BI10" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="BJ10" s="19"/>
       <c r="BK10" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BL10" s="20">
         <v>0</v>
@@ -5825,68 +5963,74 @@
         <v>2</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="19">
-        <v>181759</v>
+        <v>181680</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="H11" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="18">
         <v>2</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L11" s="19">
-        <v>181759</v>
+        <v>181680</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="O11" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="P11" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="18">
         <v>2</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T11" s="19">
-        <v>181759</v>
+        <v>181680</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
+      <c r="W11" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="X11" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="18">
         <v>2</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AB11" s="19">
-        <v>181759</v>
+        <v>182009</v>
       </c>
       <c r="AC11" s="19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AF11" s="20">
         <v>0</v>
@@ -5895,17 +6039,17 @@
         <v>2</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AJ11" s="19">
-        <v>181759</v>
+        <v>182009</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AN11" s="20">
         <v>0</v>
@@ -5914,17 +6058,17 @@
         <v>2</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AR11" s="19">
-        <v>181759</v>
+        <v>182009</v>
       </c>
       <c r="AS11" s="19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="AT11" s="19"/>
       <c r="AU11" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AV11" s="20">
         <v>0</v>
@@ -5933,17 +6077,17 @@
         <v>2</v>
       </c>
       <c r="AY11" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AZ11" s="19">
-        <v>181759</v>
+        <v>182009</v>
       </c>
       <c r="BA11" s="19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="BB11" s="19"/>
       <c r="BC11" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BD11" s="20">
         <v>0</v>
@@ -5952,17 +6096,17 @@
         <v>2</v>
       </c>
       <c r="BG11" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="BH11" s="19">
-        <v>181759</v>
+        <v>182009</v>
       </c>
       <c r="BI11" s="19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="BJ11" s="19"/>
       <c r="BK11" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BL11" s="20">
         <v>0</v>
@@ -5973,68 +6117,74 @@
         <v>3</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="19">
-        <v>181756</v>
+        <v>181670</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="H12" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="18">
         <v>3</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L12" s="19">
-        <v>181756</v>
+        <v>181670</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+      <c r="O12" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="P12" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="18">
         <v>3</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T12" s="19">
-        <v>181756</v>
+        <v>181670</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
+      <c r="W12" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="X12" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="18">
         <v>3</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AB12" s="19">
-        <v>181756</v>
+        <v>181680</v>
       </c>
       <c r="AC12" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AF12" s="20">
         <v>1</v>
@@ -6043,17 +6193,17 @@
         <v>3</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AJ12" s="19">
-        <v>181756</v>
+        <v>181680</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AN12" s="20">
         <v>1</v>
@@ -6062,17 +6212,17 @@
         <v>3</v>
       </c>
       <c r="AQ12" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AR12" s="19">
-        <v>181756</v>
+        <v>181680</v>
       </c>
       <c r="AS12" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="AT12" s="19"/>
       <c r="AU12" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AV12" s="20">
         <v>1</v>
@@ -6081,17 +6231,17 @@
         <v>3</v>
       </c>
       <c r="AY12" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AZ12" s="19">
-        <v>181756</v>
+        <v>181680</v>
       </c>
       <c r="BA12" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="BB12" s="19"/>
       <c r="BC12" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BD12" s="20">
         <v>1</v>
@@ -6100,17 +6250,17 @@
         <v>3</v>
       </c>
       <c r="BG12" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="BH12" s="19">
-        <v>181756</v>
+        <v>181680</v>
       </c>
       <c r="BI12" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="BJ12" s="19"/>
       <c r="BK12" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BL12" s="20">
         <v>1</v>
@@ -6121,401 +6271,344 @@
         <v>4</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="19">
-        <v>181901</v>
+        <v>181672</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H13" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="18">
         <v>4</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L13" s="19">
-        <v>181901</v>
+        <v>181672</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P13" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13" s="18">
         <v>4</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T13" s="19">
-        <v>181901</v>
+        <v>181672</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="V13" s="19"/>
       <c r="W13" s="19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="X13" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="18">
         <v>4</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB13" s="19">
-        <v>182008</v>
+        <v>181670</v>
       </c>
       <c r="AC13" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF13" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="18">
         <v>4</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ13" s="19">
-        <v>182008</v>
+        <v>181670</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN13" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP13" s="18">
         <v>4</v>
       </c>
       <c r="AQ13" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR13" s="19">
-        <v>182008</v>
+        <v>181670</v>
       </c>
       <c r="AS13" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AT13" s="19"/>
       <c r="AU13" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AV13" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX13" s="18">
         <v>4</v>
       </c>
       <c r="AY13" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AZ13" s="19">
-        <v>182008</v>
+        <v>181670</v>
       </c>
       <c r="BA13" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="BB13" s="19"/>
       <c r="BC13" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BD13" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF13" s="18">
         <v>4</v>
       </c>
       <c r="BG13" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BH13" s="19">
-        <v>182008</v>
+        <v>181670</v>
       </c>
       <c r="BI13" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="BJ13" s="19"/>
       <c r="BK13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL13" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="16">
+        <v>181675</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="BL13" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="17">
+        <v>4</v>
+      </c>
+      <c r="J14" s="15">
         <v>5</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="19">
-        <v>181902</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="20">
-        <v>3</v>
-      </c>
-      <c r="J14" s="18">
+      <c r="K14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="16">
+        <v>181675</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="17">
+        <v>4</v>
+      </c>
+      <c r="R14" s="15">
         <v>5</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="19">
-        <v>181902</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="20">
-        <v>3</v>
-      </c>
-      <c r="R14" s="18">
-        <v>5</v>
-      </c>
-      <c r="S14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" s="19">
-        <v>181902</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="20">
-        <v>3</v>
+      <c r="S14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="16">
+        <v>181675</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X14" s="17">
+        <v>4</v>
       </c>
       <c r="Z14" s="18">
         <v>5</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB14" s="19">
-        <v>181901</v>
+        <v>181672</v>
       </c>
       <c r="AC14" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF14" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH14" s="18">
         <v>5</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ14" s="19">
-        <v>181901</v>
+        <v>181672</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AL14" s="19"/>
       <c r="AM14" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN14" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP14" s="18">
         <v>5</v>
       </c>
       <c r="AQ14" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR14" s="19">
-        <v>181901</v>
+        <v>181672</v>
       </c>
       <c r="AS14" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AT14" s="19"/>
       <c r="AU14" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AV14" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="18">
         <v>5</v>
       </c>
       <c r="AY14" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AZ14" s="19">
-        <v>181901</v>
+        <v>181672</v>
       </c>
       <c r="BA14" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BB14" s="19"/>
       <c r="BC14" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BD14" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF14" s="18">
         <v>5</v>
       </c>
       <c r="BG14" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BH14" s="19">
-        <v>181901</v>
+        <v>181672</v>
       </c>
       <c r="BI14" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BJ14" s="19"/>
       <c r="BK14" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BL14" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18">
-        <v>6</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="19">
-        <v>181667</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="20">
-        <v>3</v>
-      </c>
-      <c r="J15" s="18">
-        <v>6</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="19">
-        <v>181667</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="20">
-        <v>3</v>
-      </c>
-      <c r="R15" s="18">
-        <v>6</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" s="19">
-        <v>181667</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X15" s="20">
-        <v>3</v>
-      </c>
       <c r="Z15" s="18">
         <v>6</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB15" s="19">
-        <v>181902</v>
+        <v>181675</v>
       </c>
       <c r="AC15" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF15" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH15" s="18">
         <v>6</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ15" s="19">
-        <v>181663</v>
+        <v>181767</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="AL15" s="19"/>
       <c r="AM15" s="19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AN15" s="20">
         <v>3</v>
@@ -6524,17 +6617,17 @@
         <v>6</v>
       </c>
       <c r="AQ15" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AR15" s="19">
-        <v>181663</v>
+        <v>181767</v>
       </c>
       <c r="AS15" s="19" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="AT15" s="19"/>
       <c r="AU15" s="19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AV15" s="20">
         <v>3</v>
@@ -6543,17 +6636,17 @@
         <v>6</v>
       </c>
       <c r="AY15" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AZ15" s="19">
-        <v>181663</v>
+        <v>181767</v>
       </c>
       <c r="BA15" s="19" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="BB15" s="19"/>
       <c r="BC15" s="19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="BD15" s="20">
         <v>3</v>
@@ -6562,1268 +6655,293 @@
         <v>6</v>
       </c>
       <c r="BG15" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="BH15" s="19">
-        <v>181663</v>
+        <v>181767</v>
       </c>
       <c r="BI15" s="19" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="BJ15" s="19"/>
       <c r="BK15" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="BL15" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18">
+    <row r="16" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z16" s="15">
         <v>7</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="19">
-        <v>181797</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20">
-        <v>3</v>
-      </c>
-      <c r="J16" s="18">
+      <c r="AA16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>181819</v>
+      </c>
+      <c r="AC16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF16" s="17">
         <v>7</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="19">
-        <v>181797</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20">
-        <v>3</v>
-      </c>
-      <c r="R16" s="18">
-        <v>7</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="T16" s="19">
-        <v>181797</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="20">
-        <v>3</v>
-      </c>
-      <c r="Z16" s="18">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB16" s="19">
-        <v>181667</v>
-      </c>
-      <c r="AC16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF16" s="20">
-        <v>3</v>
       </c>
       <c r="AH16" s="18">
         <v>7</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ16" s="19">
-        <v>181902</v>
+        <v>181675</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AL16" s="19"/>
       <c r="AM16" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN16" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP16" s="18">
         <v>7</v>
       </c>
       <c r="AQ16" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR16" s="19">
-        <v>181902</v>
+        <v>181675</v>
       </c>
       <c r="AS16" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AT16" s="19"/>
       <c r="AU16" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AV16" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="18">
         <v>7</v>
       </c>
       <c r="AY16" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AZ16" s="19">
-        <v>181902</v>
+        <v>181675</v>
       </c>
       <c r="BA16" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BB16" s="19"/>
       <c r="BC16" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BD16" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF16" s="18">
         <v>7</v>
       </c>
       <c r="BG16" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BH16" s="19">
-        <v>181902</v>
+        <v>181675</v>
       </c>
       <c r="BI16" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BJ16" s="19"/>
       <c r="BK16" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BL16" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
-        <v>8</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="19">
-        <v>181900</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="20">
-        <v>3</v>
-      </c>
-      <c r="J17" s="18">
-        <v>8</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="19">
-        <v>181900</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="20">
-        <v>3</v>
-      </c>
-      <c r="R17" s="18">
-        <v>8</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" s="19">
-        <v>181900</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="20">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="18">
-        <v>8</v>
-      </c>
-      <c r="AA17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB17" s="19">
-        <v>181900</v>
-      </c>
-      <c r="AC17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF17" s="20">
-        <v>3</v>
-      </c>
+    <row r="17" spans="34:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH17" s="18">
         <v>8</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ17" s="19">
-        <v>181667</v>
+        <v>182039</v>
       </c>
       <c r="AK17" s="19" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="AL17" s="19"/>
       <c r="AM17" s="19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AN17" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AP17" s="18">
         <v>8</v>
       </c>
       <c r="AQ17" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AR17" s="19">
-        <v>181667</v>
+        <v>182039</v>
       </c>
       <c r="AS17" s="19" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="AT17" s="19"/>
       <c r="AU17" s="19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AV17" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX17" s="18">
         <v>8</v>
       </c>
       <c r="AY17" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AZ17" s="19">
-        <v>181667</v>
+        <v>182039</v>
       </c>
       <c r="BA17" s="19" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="BB17" s="19"/>
       <c r="BC17" s="19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="BD17" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BF17" s="18">
         <v>8</v>
       </c>
       <c r="BG17" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="BH17" s="19">
-        <v>181667</v>
+        <v>182039</v>
       </c>
       <c r="BI17" s="19" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="BJ17" s="19"/>
       <c r="BK17" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="BL17" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18">
+    <row r="18" spans="34:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH18" s="15">
         <v>9</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="19">
-        <v>181668</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19" t="s">
+      <c r="AI18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="20">
-        <v>4</v>
-      </c>
-      <c r="J18" s="18">
-        <v>9</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="19">
-        <v>181668</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" s="20">
-        <v>4</v>
-      </c>
-      <c r="R18" s="18">
-        <v>9</v>
-      </c>
-      <c r="S18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" s="19">
-        <v>181668</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X18" s="20">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="18">
-        <v>9</v>
-      </c>
-      <c r="AA18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB18" s="19">
-        <v>182009</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF18" s="20">
-        <v>4</v>
-      </c>
-      <c r="AH18" s="18">
-        <v>9</v>
-      </c>
-      <c r="AI18" s="19" t="s">
+      <c r="AJ18" s="16">
+        <v>181868</v>
+      </c>
+      <c r="AK18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AJ18" s="19">
-        <v>181797</v>
-      </c>
-      <c r="AK18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN18" s="20">
-        <v>3</v>
+      <c r="AN18" s="17">
+        <v>7</v>
       </c>
       <c r="AP18" s="18">
         <v>9</v>
       </c>
       <c r="AQ18" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AR18" s="19">
-        <v>181797</v>
+        <v>181868</v>
       </c>
       <c r="AS18" s="19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="AT18" s="19"/>
       <c r="AU18" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AV18" s="20">
-        <v>3</v>
-      </c>
-      <c r="AX18" s="18">
+        <v>7</v>
+      </c>
+      <c r="AX18" s="15">
         <v>9</v>
       </c>
-      <c r="AY18" s="19" t="s">
+      <c r="AY18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ18" s="16">
+        <v>181868</v>
+      </c>
+      <c r="BA18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AZ18" s="19">
-        <v>181797</v>
-      </c>
-      <c r="BA18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD18" s="20">
-        <v>3</v>
-      </c>
-      <c r="BF18" s="18">
+      <c r="BD18" s="17">
+        <v>7</v>
+      </c>
+      <c r="BF18" s="15">
         <v>9</v>
       </c>
-      <c r="BG18" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH18" s="19">
-        <v>181797</v>
-      </c>
-      <c r="BI18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="BJ18" s="19"/>
-      <c r="BK18" s="19" t="s">
+      <c r="BG18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH18" s="16">
+        <v>181819</v>
+      </c>
+      <c r="BI18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL18" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="34:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP19" s="15">
+        <v>10</v>
+      </c>
+      <c r="AQ19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR19" s="16">
+        <v>181819</v>
+      </c>
+      <c r="AS19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="BL18" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
-        <v>10</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="19">
-        <v>181680</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="20">
-        <v>5</v>
-      </c>
-      <c r="J19" s="18">
-        <v>10</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="19">
-        <v>181680</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="20">
-        <v>5</v>
-      </c>
-      <c r="R19" s="18">
-        <v>10</v>
-      </c>
-      <c r="S19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="T19" s="19">
-        <v>181680</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X19" s="20">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="18">
-        <v>10</v>
-      </c>
-      <c r="AA19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB19" s="19">
-        <v>181668</v>
-      </c>
-      <c r="AC19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF19" s="20">
-        <v>4</v>
-      </c>
-      <c r="AH19" s="18">
-        <v>10</v>
-      </c>
-      <c r="AI19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ19" s="19">
-        <v>181900</v>
-      </c>
-      <c r="AK19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN19" s="20">
-        <v>3</v>
-      </c>
-      <c r="AP19" s="18">
-        <v>10</v>
-      </c>
-      <c r="AQ19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR19" s="19">
-        <v>181900</v>
-      </c>
-      <c r="AS19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV19" s="20">
-        <v>3</v>
-      </c>
-      <c r="AX19" s="18">
-        <v>10</v>
-      </c>
-      <c r="AY19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ19" s="19">
-        <v>181900</v>
-      </c>
-      <c r="BA19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB19" s="19"/>
-      <c r="BC19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD19" s="20">
-        <v>3</v>
-      </c>
-      <c r="BF19" s="18">
-        <v>10</v>
-      </c>
-      <c r="BG19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="BH19" s="19">
-        <v>181900</v>
-      </c>
-      <c r="BI19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ19" s="19"/>
-      <c r="BK19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="BL19" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
-        <v>11</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="19">
-        <v>181670</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="20">
-        <v>6</v>
-      </c>
-      <c r="J20" s="18">
-        <v>11</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="19">
-        <v>181670</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" s="20">
-        <v>6</v>
-      </c>
-      <c r="R20" s="18">
-        <v>11</v>
-      </c>
-      <c r="S20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="T20" s="19">
-        <v>181670</v>
-      </c>
-      <c r="U20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X20" s="20">
-        <v>6</v>
-      </c>
-      <c r="Z20" s="18">
-        <v>11</v>
-      </c>
-      <c r="AA20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB20" s="19">
-        <v>181680</v>
-      </c>
-      <c r="AC20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF20" s="20">
-        <v>5</v>
-      </c>
-      <c r="AH20" s="18">
-        <v>11</v>
-      </c>
-      <c r="AI20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ20" s="19">
-        <v>182009</v>
-      </c>
-      <c r="AK20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN20" s="20">
-        <v>4</v>
-      </c>
-      <c r="AP20" s="18">
-        <v>11</v>
-      </c>
-      <c r="AQ20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR20" s="19">
-        <v>182009</v>
-      </c>
-      <c r="AS20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV20" s="20">
-        <v>4</v>
-      </c>
-      <c r="AX20" s="18">
-        <v>11</v>
-      </c>
-      <c r="AY20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ20" s="19">
-        <v>182009</v>
-      </c>
-      <c r="BA20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD20" s="20">
-        <v>4</v>
-      </c>
-      <c r="BF20" s="18">
-        <v>11</v>
-      </c>
-      <c r="BG20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="BH20" s="19">
-        <v>182009</v>
-      </c>
-      <c r="BI20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="BL20" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15">
-        <v>12</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="16">
-        <v>181672</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="17">
-        <v>7</v>
-      </c>
-      <c r="J21" s="15">
-        <v>12</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="16">
-        <v>181672</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="17">
-        <v>7</v>
-      </c>
-      <c r="R21" s="15">
-        <v>12</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T21" s="16">
-        <v>181672</v>
-      </c>
-      <c r="U21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="X21" s="17">
-        <v>7</v>
-      </c>
-      <c r="Z21" s="18">
-        <v>12</v>
-      </c>
-      <c r="AA21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB21" s="19">
-        <v>181670</v>
-      </c>
-      <c r="AC21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF21" s="20">
-        <v>6</v>
-      </c>
-      <c r="AH21" s="18">
-        <v>12</v>
-      </c>
-      <c r="AI21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ21" s="19">
-        <v>181668</v>
-      </c>
-      <c r="AK21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN21" s="20">
-        <v>4</v>
-      </c>
-      <c r="AP21" s="18">
-        <v>12</v>
-      </c>
-      <c r="AQ21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR21" s="19">
-        <v>181668</v>
-      </c>
-      <c r="AS21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV21" s="20">
-        <v>4</v>
-      </c>
-      <c r="AX21" s="18">
-        <v>12</v>
-      </c>
-      <c r="AY21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ21" s="19">
-        <v>181668</v>
-      </c>
-      <c r="BA21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB21" s="19"/>
-      <c r="BC21" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD21" s="20">
-        <v>4</v>
-      </c>
-      <c r="BF21" s="18">
-        <v>12</v>
-      </c>
-      <c r="BG21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="BH21" s="19">
-        <v>181668</v>
-      </c>
-      <c r="BI21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="BL21" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z22" s="15">
-        <v>13</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB22" s="16">
-        <v>181672</v>
-      </c>
-      <c r="AC22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF22" s="17">
-        <v>7</v>
-      </c>
-      <c r="AH22" s="18">
-        <v>13</v>
-      </c>
-      <c r="AI22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ22" s="19">
-        <v>181680</v>
-      </c>
-      <c r="AK22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN22" s="20">
-        <v>5</v>
-      </c>
-      <c r="AP22" s="18">
-        <v>13</v>
-      </c>
-      <c r="AQ22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR22" s="19">
-        <v>181680</v>
-      </c>
-      <c r="AS22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV22" s="20">
-        <v>5</v>
-      </c>
-      <c r="AX22" s="18">
-        <v>13</v>
-      </c>
-      <c r="AY22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ22" s="19">
-        <v>181680</v>
-      </c>
-      <c r="BA22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD22" s="20">
-        <v>5</v>
-      </c>
-      <c r="BF22" s="18">
-        <v>13</v>
-      </c>
-      <c r="BG22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="BH22" s="19">
-        <v>181680</v>
-      </c>
-      <c r="BI22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="BL22" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH23" s="18">
-        <v>14</v>
-      </c>
-      <c r="AI23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ23" s="19">
-        <v>181670</v>
-      </c>
-      <c r="AK23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN23" s="20">
-        <v>6</v>
-      </c>
-      <c r="AP23" s="18">
-        <v>14</v>
-      </c>
-      <c r="AQ23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR23" s="19">
-        <v>181670</v>
-      </c>
-      <c r="AS23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT23" s="19"/>
-      <c r="AU23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV23" s="20">
-        <v>6</v>
-      </c>
-      <c r="AX23" s="18">
-        <v>14</v>
-      </c>
-      <c r="AY23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ23" s="19">
-        <v>181670</v>
-      </c>
-      <c r="BA23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB23" s="19"/>
-      <c r="BC23" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD23" s="20">
-        <v>6</v>
-      </c>
-      <c r="BF23" s="18">
-        <v>14</v>
-      </c>
-      <c r="BG23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="BH23" s="19">
-        <v>181670</v>
-      </c>
-      <c r="BI23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="BL23" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH24" s="18">
-        <v>15</v>
-      </c>
-      <c r="AI24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ24" s="19">
-        <v>181672</v>
-      </c>
-      <c r="AK24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN24" s="20">
-        <v>7</v>
-      </c>
-      <c r="AP24" s="18">
-        <v>15</v>
-      </c>
-      <c r="AQ24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR24" s="19">
-        <v>181672</v>
-      </c>
-      <c r="AS24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT24" s="19"/>
-      <c r="AU24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV24" s="20">
-        <v>7</v>
-      </c>
-      <c r="AX24" s="18">
-        <v>15</v>
-      </c>
-      <c r="AY24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ24" s="19">
-        <v>181672</v>
-      </c>
-      <c r="BA24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB24" s="19"/>
-      <c r="BC24" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD24" s="20">
-        <v>7</v>
-      </c>
-      <c r="BF24" s="18">
-        <v>15</v>
-      </c>
-      <c r="BG24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="BH24" s="19">
-        <v>181672</v>
-      </c>
-      <c r="BI24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ24" s="19"/>
-      <c r="BK24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="BL24" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:64" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AH25" s="15">
-        <v>16</v>
-      </c>
-      <c r="AI25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ25" s="16">
-        <v>181767</v>
-      </c>
-      <c r="AK25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL25" s="16"/>
-      <c r="AM25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN25" s="17">
-        <v>7</v>
-      </c>
-      <c r="AP25" s="15">
-        <v>16</v>
-      </c>
-      <c r="AQ25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR25" s="16">
-        <v>181767</v>
-      </c>
-      <c r="AS25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT25" s="16"/>
-      <c r="AU25" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV25" s="17">
-        <v>7</v>
-      </c>
-      <c r="AX25" s="15">
-        <v>16</v>
-      </c>
-      <c r="AY25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ25" s="16">
-        <v>181767</v>
-      </c>
-      <c r="BA25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB25" s="16"/>
-      <c r="BC25" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD25" s="17">
-        <v>7</v>
-      </c>
-      <c r="BF25" s="15">
-        <v>16</v>
-      </c>
-      <c r="BG25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH25" s="16">
-        <v>181767</v>
-      </c>
-      <c r="BI25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="BJ25" s="16"/>
-      <c r="BK25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="BL25" s="17">
+      <c r="AV19" s="17">
         <v>7</v>
       </c>
     </row>
